--- a/海豚家同步文档/项目进度.xlsx
+++ b/海豚家同步文档/项目进度.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymbp/Desktop/海豚家同步文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymbp/Documents/PM/HTML Files/海豚家同步文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DB0C6-268E-164B-A6FD-3B4289918F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEC197A-8A06-9A47-9152-4486DA72FB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="32720" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="32700" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="4" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4月'!$A$1:$K$197</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -764,6 +764,10 @@
   </si>
   <si>
     <t>插入 需求非常复杂，至少有10个页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买年卡送1个视频卡的兑换浮窗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1436,7 +1440,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="26">
+    <row r="10" spans="1:8">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -7479,10 +7483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7570,6 +7574,11 @@
         <v>188</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
